--- a/biology/Mycologie/Plutéacée/Plutéacée.xlsx
+++ b/biology/Mycologie/Plutéacée/Plutéacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plut%C3%A9ac%C3%A9e</t>
+          <t>Plutéacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pluteaceae sont une famille de champignons Basidiomycètes de l'ordre des Agaricales. Cette famille comporte entre 4 et 5 genres dont son genre type Pluteus. Ce sont essentiellement des champignons saprophytes colonisant par petits groupes des milieux variés. De taille petite à moyenne, ses espèces sont caractérisées par des lames libres et une sporée rose ; contrairement aux Entolomataceae, qui ont des spores coudées et jamais de lames libres et aux Amanitaceae qui ont une sporée blanche[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pluteaceae sont une famille de champignons Basidiomycètes de l'ordre des Agaricales. Cette famille comporte entre 4 et 5 genres dont son genre type Pluteus. Ce sont essentiellement des champignons saprophytes colonisant par petits groupes des milieux variés. De taille petite à moyenne, ses espèces sont caractérisées par des lames libres et une sporée rose ; contrairement aux Entolomataceae, qui ont des spores coudées et jamais de lames libres et aux Amanitaceae qui ont une sporée blanche.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plut%C3%A9ac%C3%A9e</t>
+          <t>Plutéacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Genres inclus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chamaeota : au moins une dizaine d'espèces assez rares[2]
-Pluteus : plus de 300 espèces[3]
-Volvariella : une centaine d'espèces[4]
-Volvopluteus : 4 espèces issues d'une scission récente de Volvariella[5],[1]
-Melanoleuca : ce genre de définition complexe est traditionnellement inclut au sein des Tricholomataceae[6]. Cependant, les études phylogénétiques des années 2000 montrent un rapprochement avec Amanita et Pluteus[7] et de nombreux mycologues le placent aujourd'hui au sein des Pluteaceae[1],[8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chamaeota : au moins une dizaine d'espèces assez rares
+Pluteus : plus de 300 espèces
+Volvariella : une centaine d'espèces
+Volvopluteus : 4 espèces issues d'une scission récente de Volvariella,
+Melanoleuca : ce genre de définition complexe est traditionnellement inclut au sein des Tricholomataceae. Cependant, les études phylogénétiques des années 2000 montrent un rapprochement avec Amanita et Pluteus et de nombreux mycologues le placent aujourd'hui au sein des Pluteaceae,</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plut%C3%A9ac%C3%A9e</t>
+          <t>Plutéacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Situation phylogénétique des Pluteaeceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade des Athéloïdes
